--- a/500all/speech_level/speeches_CHRG-114hhrg97753.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97753.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. With the approval of the ranking member, we are going to start. And thank you very much. The subcommittee will come to order.    After recognizing myself and the ranking member for 5 minutes each for our opening statements, I will then recognize any other member seeking recognition for 1 minute. We will then hear from our witnesses. Thank you for your patience. Without objection the witnesses' prepared statements will be made a part of the record and members may have 5 days to insert statements and/or questions for the record subject to the length and limitations in the rules. The chair now recognizes herself for a loosely defined 5 minutes.    As we are all aware, earlier this week the Department of State issued a notice warning of a possible imminent attack in Kabul. With so much of our attention focused on the threat from ISIS and the problems in Syria, Iraq, and Iran, it is important that we do not lose sight of some of the other areas of concern for our national security interests, and this security warning is a stark reminder of that.    It took a resurgent Taliban seizing control of Kunduz for President Obama to adjust his strategy, announcing a halt to the withdrawal of American forces from Afghanistan. It was an acknowledgement that the strategy of gradual withdraw was not in line with the reality on the ground. Yet concerns remain that the President isn't leaving behind enough troops to support our objectives in Afghanistan. What was lost in the discussion was the fact that Afghan security forces were able to regain Kunduz back from the Taliban.    Our military leaders on the ground feel confident that the Afghan security forces have done a good job fighting during this season, and are more professional than the Iraqi security forces. Today our core mission is to train, to advise, and to assist the Afghan security forces, and to conduct counterterrorism operations against al-Qaeda and its many affiliates.    Last month I led a bipartisan congressional delegation (codel) visit and was pleased to be joined by one of our members of our subcommittee, Dr. Yoho, to Afghanistan to meet with our troops carrying out this important mission, as well as to discuss pressing issues with President Ghani, CEO Abdullah, General Campbell, and other U.S. military leaders. I had also visited in 2013 when we met with President Karzai.    The one thing that was abundantly clear to me this time around and echoed by everyone with whom I met was that the Afghan Government's eagerness to cooperate with us has greatly improved and that the team of Ghani and Abdullah is an improvement over any combination of Karzai and anyone else.    The current Afghan leaders are saying the right things and are undertaking efforts to root out corruption, to secure and stabilize their own country. We cannot abandon our ally. We must redouble our efforts to remain engaged to seek a more stable Afghanistan.    ISIS is growing in its presence in Afghanistan, mainly by attracting some of the more radical elements of the Taliban who have broken away and have sworn allegiance to ISIS. And that makes our strategy in Afghanistan that much more important. General Campbell told Congress that the terror group status in Afghanistan has grown from nascent to operationally emergent over the course of just a year. Yet when I led our congressional delegation to Afghanistan, I was shocked to hear that our mission does not give our commanders and troops the authority to go after ISIS, that the tasks for containing and defeating this rising threat falls squarely on the Afghan Government and its security forces.    The day the codel departed from the region, we learned that seven people in Afghanistan were beheaded by ISIL, and thousands of people came out to the streets to protest this horrific act of terror. We must rethink the scope of our mission to include taking on more than just al-Qaeda and its affiliates. We should also re-assess our counternarcotics approach in Afghanistan. Terror and drugs are linked as much as the profits from the drug trade in Afghanistan fund these terror groups. While it is encouraging that the new Afghan Government has signed a new counterdrug plan, we need to ensure that it has the resources it needs to succeed in action.    I remain concerned that the number of DEA agents has decreased substantially. Our state INL staff are limited in their movements, and the Afghan counternarcotics forces cannot concentrate on the drug trade because they are busy fighting terrorism. Both the U.S. forces and the security forces of Afghanistan have a limited amount of air lift capabilities, which further limits their ability to tackle any major security or counternarcotics concern. This runs the danger of leaving a wide area of Afghanistan unexposed to our security efforts, and it could have terrible and tragic consequences.    The administration needs to revisit its strategy, and not just put a halt on the withdrawal because artificial timelines will not work, and it needs to also get buy-in from Pakistan. President Ghani has reached out his hand to Pakistan, but has been rebuffed. The U.S. cannot afford to have Pakistan play into the instability in Afghanistan and to continue to allow terrorists safe haven inside its borders. We currently have a pending military package for Pakistan before us in this committee. We need to use this leverage to get Pakistan to do more on the counterterrorism front and to collaborate rather than work against the Afghan Government and its security forces.    During our trip we were also honored to meet with the courageous women of Afghanistan and were proud to hear of the strides that they are making on behalf of women's rights thanks to their hard work and leadership. The stakes are too high in Afghanistan for the Afghan people, for the region, and for U.S. national security interests to allow Afghanistan to fall back on any of the progress we have made together thus far.    Lastly, I want to thank the men and women who so bravely serve and protect our national security interests in Afghanistan. We had an opportunity to meet with so many of these truly heroic and courageous individuals who continue to put their lives at risk each and every day so that we can sleep safely at home while they are out there defending our freedom and our values.    And it says say this, it says here. Say this: Congressman Deutch got pulled into a last minute meeting, but he will show up a little bit later.    So now I am going to recognize other members for their statements. And we will begin with Mr. Cicilline.</t>
   </si>
   <si>
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Madam Chairman.    Thank you, Madam Chairman and Ranking Member Deutch for convening this very important hearing relating to U.S. strategy in Afghanistan. Over the previous 14 years, the U.S. has spent an estimated $1 trillion and lost more than 2,300 American lives in Afghanistan. Military gains by the Taliban and the growing presence of groups like Daesh, as well as a growing number of loosely aligned armed groups provide grave uncertainty regarding Afghanistan's security and stability. It also reveals tremendous challenges and even uncertainty about what role we can effectively play in resolving these conflicts.    The President's recent shift in strategy will leave a significant number of American forces in Afghanistan beyond 2016, creating an unclear future regarding our presence in the region and when it will finally conclude.    I look forward to hearing the perspective of today's witnesses who will help provide an assessment of the President's strategy in Afghanistan and its impact on our overall national security. And with that I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Madam Chair. I am glad you called this hearing because I don't know what the President's strategy really is in Afghanistan. I don't know what his strategy really is to deal with terrorism in other parts of the Middle East. I haven't quite been able to figure out his overall foreign policy generally apart from making concessions to regimes that are adverse to our interests like Iran and Russia. So I am hoping to be enlightened, and I am glad you called the hearing. And I yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. That is all right. Mr. Cicilline can go ahead of me any time.    Thank you, Madam Chair, for this hearing. I will be short just to--as the chairlady knows, my son served in the United States Marines in Afghanistan. He also went back to Afghanistan as a member of USAID. So I have a great deal of interest in hearing what you have to say today. And I yield back.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>412646</t>
   </si>
   <si>
-    <t>Lee M. Zeldin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zeldin. Well, thank you, Madam Chairwoman, and I want to echo Ron DeSantis' point, how grateful we are that you are holding this hearing. And I think it is important for our constituents to know exactly what the President's strategy is in Afghanistan, in Iraq, and Syria. A strategy which is questioning what is the realty on the ground overseas, not so much what is the rhetoric here at home to best serve one's domestic politics.    We want to know what the rules of engagement are. Are we giving flexibility to our local commanders so that they could adapt to changing circumstances? Who exactly are the forces on the ground? Who is in charge? What is their mission? What is their skill set? What's the long-term plan? What is the vision for where we want to be a year from now or 5 years from now? Whenever we send servicemembers into harm's way, it is important for them, their families, for our country to know that they are being sent with a strategy to win to keep them safe. I yield back.</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>412652</t>
   </si>
   <si>
-    <t>Brendan F. Boyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Boyle. Well, thank you, Madam Chair, and I really am going to refrain from an opening statement except to say two things. So I guess I am not refraining from an opening statement, in typical congressional fashion.    The first is I am very anxious to hear from this august panel. I have had the opportunity to hear from one of the members before and am familiar with the work of all three of you. That is number one. And, number two, because I might not get the opportunity later to say it, absolutely anyone would be better than Hamid Karzai, who seemed to in no way appreciate the sacrifice that the American people have gone through over the last 14 years. So, if anything, we can celebrate that we actually do have somewhat of a partner in Afghanistan to move us forward. I will yield back.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Madam Chair, and thank you for holding this hearing. And we thank our witnesses. Looking forward to hearing what they have to say this afternoon.    It seems in recent months due to the growing problems in Syria, and the Iran nuclear agreement, and ISIS and a litany of other major issues all across the world, that Afghanistan to some degree, has kind of been, I think, on the back burner of this administration, has kind of fallen from view in many ways. However, without question the increase in terrorist attacks across the globe is a real threat to stability in the world, the future of Afghanistan, and could really undermine U.S. interests. All of us on this committee have paid particular attention of the mounting threat ISIS has posed. And I think it is fair to stay that the administration fails to do due diligence to ensure stability in Afghanistan, that we are going to see a resurgence in terrorism there as well.    A thoughtful and cohesive strategy continues to be essential in preventing the expansion of al-Qaeda and ISIS and other terrorist organizations in Afghanistan. And it is my hope that the administration and our regional partners give Afghanistan the long-term strategic outlook it deserves as we move forward. And thank you very much, Madam Chair.</t>
   </si>
   <si>
@@ -133,9 +112,6 @@
     <t>412604</t>
   </si>
   <si>
-    <t>Curt Clawson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clawson. I appreciate you all coming in today. This whole situation feels to me like the folks that we support in Afghanistan don't get along. They don't get up to speed. And our allies don't get to pay their fair share. And so while we risk the lives of our brave men and women it kind of feels like no one else, no one else, Europe, in the region, even the people we support, put chips on the table. And we are the only one getting wet. And so it kind of adds to this never-ending quagmire that we are the only ones really paying the price. And so I am hoping that you all will explain if you see a way out from that, and so I appreciate you all coming.</t>
   </si>
   <si>
@@ -145,9 +121,6 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. I think most of my statements are off the cuff, Madam Chairwoman. But, no, I am ready to go. Thank you for holding this hearing.</t>
   </si>
   <si>
@@ -157,18 +130,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Sedney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sedney. That is fine. I am only a juris doctor. So it doesn't count, my wife tells me.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Who is senior associate for the Center of Strategic International Studies. In the past he served as Deputy Assistant Secretary of Defense for Afghanistan, Pakistan, and Central Asia; Deputy Chief of Mission in the U.S. Embassy in Kabul; and senior advisor to then U.N. Ambassador John Negroponte. Welcome, sir.    And last but certainly not least, we would like to welcome Dr. Andrew Wilder who is Vice President of Asia Programs at the United States Institute of Peace. He has served as research director for politics and policy at the Feinstein Center at Tufts University, and has managed humanitarian development programs in Afghanistan for NGOs such as Save the Children, the International Rescue Committee and Mercy Corps. Welcome, Dr. Wilder.    And we will begin with you, Dr. Kagan. Thank you. Your statements will be made a part of the record. Please feel free to summarize.</t>
   </si>
   <si>
-    <t>Kagan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kagan. Thank you, Madam Chair. To the absent ranking, I thank him also.</t>
   </si>
   <si>
@@ -191,9 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Yikes. It is getting worse.    Dr. Wilder, any good news there?</t>
-  </si>
-  <si>
-    <t>Wilder</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Wilder. I will try. But anyway, Chairwoman Ros-Lehtinen and Ranking Member Deutch, when he joins us, and members of the subcommittee, thank you for this opportunity to give my views on the current U.S. strategy in Afghanistan. I would like to note that the views I give today are my own, as the U.S. Institute of Peace does not take policy positions.    I am currently the vice president of USIP's Asia Center where my responsibilities include overseeing our work in Afghanistan. I began to work in this region 30 years ago with U.S. humanitarian organizations and witnessed firsthand the tragic consequences for Afghans, and eventually the U.S. as well, when peace settlements failed and when the world lost interest in Afghanistan.    My main message today, therefore, is that the U.S. should not once again prematurely disengage from Afghanistan. In my view, the foremost interest of the U.S. in Afghanistan should be to help ensure that it remains relatively peaceful and stable, and does not slide back into all-out civil war and anarchy, precisely the same conditions that gave birth to the Taliban in the 1990s, and gave al-Qaeda sanctuary.    The collapse of the Afghan state would nearly certainly result in Afghanistan once again becoming a safe haven for transnational terrorist groups, and would al risk destabilizing its neighbors, including nuclear armed Pakistan. In this regard, I welcome President Obama's recent announcement that the U.S. will maintain the current level of 9,800 troops in Afghanistan through most of next year. Perhaps more importantly, President Obama reversed his earlier plan to close down U.S. bases in Afghanistan, and instead to maintain beyond 2016 at least, 5,500 troops in bases in Bagram, Kandahar, and Jalalabad.    Significantly, for the first time since May 2014, the U.S. no longer has a calendar deadline by which to pull out U.S. forces. This not only serves to keep options open for the next President, but it also sends a strong message to the Afghan people as well as the Taliban of the U.S. commitment to achieve our objective of a stable Afghanistan.    I suspected my two colleagues would focus mostly on the security situation, and so I thought I would in my oral testimony touch on the economic and political situation as well. I think the security situation is often the focus of attention, but the current economic crisis in Pakistan--in Afghanistan is one of the most serious threats to the stability of the current government and the constitutional order in Afghanistan.    The Afghan economy is in dire straits. Economic growth has been very weak. A 1.3 percent in 2014 when in the decade before we are achieving rates of 8 to 9 percent on average. It has been frequently noted but worth repeating that it was not the withdrawal of Soviet troops that lead to the downfall of the Najibullah regime in 1992, and the resulting descent into a bloody civil war. But the end to the Soviet subsidies following the collapse of the Soviet Union. In order not to make the same make mistake, I would make the following two recommendations in terms of economic assistance.    First, the U.S. should play a strong leadership role at the International Donor Conference on Afghanistan, taking place in Brussels next October, to ensure that major donor countries renew their commitments to maintaining robust levels of civilian assistance to Afghanistan and so that it isn't just the U.S. having to foot that bill.    And, second, the U.S. and other donors should provide the Afghan Government with more flexible financial resources that can be used to help stimulate the economy and create jobs in the short to medium term. This would help reduce the possibility of civil unrest due to economic discontent, and buy the Ghani administration some political space to get a reform agenda and a peace process on track. And if anyone is interested, I have copies with me today of a USIP paper by our expert, Bill Byrd, on reviving Afghanistan's economy, which goes into more detail.</t>
@@ -748,11 +712,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -772,13 +734,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -800,11 +760,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -824,13 +782,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -852,11 +808,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -876,13 +830,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -904,11 +856,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -928,13 +878,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -956,11 +904,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -980,13 +926,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1008,11 +952,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1032,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1060,11 +1000,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1084,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1112,11 +1048,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1136,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1164,11 +1096,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1188,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1216,11 +1144,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1240,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1268,11 +1192,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1292,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1320,11 +1240,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1344,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1372,11 +1288,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1396,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>46</v>
-      </c>
-      <c r="G27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1424,11 +1336,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1448,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" t="s">
-        <v>59</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1476,11 +1384,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1500,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" t="s">
-        <v>59</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1528,11 +1432,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1552,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" t="s">
-        <v>59</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1580,11 +1480,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1604,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1632,11 +1528,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1656,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1684,11 +1576,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1708,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1736,11 +1624,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1760,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1788,11 +1672,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1812,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1838,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1864,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" t="s">
-        <v>59</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1890,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1916,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1942,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1968,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G49" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1994,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2020,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G51" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2046,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2072,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2098,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2124,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2150,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
-      </c>
-      <c r="G56" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2176,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2202,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
-      </c>
-      <c r="G58" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2228,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2256,11 +2104,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2280,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2308,11 +2152,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2332,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2358,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
-      </c>
-      <c r="G64" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2384,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
-      </c>
-      <c r="G65" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2410,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
-      </c>
-      <c r="G66" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2436,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G67" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2462,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2488,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
-      </c>
-      <c r="G69" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2514,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
-      </c>
-      <c r="G70" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2540,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
-      </c>
-      <c r="G71" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2566,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
-      </c>
-      <c r="G72" t="s">
-        <v>59</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2592,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G73" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2620,11 +2440,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2644,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
-      </c>
-      <c r="G75" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2672,11 +2488,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2696,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
-      </c>
-      <c r="G77" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2724,11 +2536,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2748,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
-      </c>
-      <c r="G79" t="s">
-        <v>59</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2776,11 +2584,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97753.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97753.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. With the approval of the ranking member, we are going to start. And thank you very much. The subcommittee will come to order.    After recognizing myself and the ranking member for 5 minutes each for our opening statements, I will then recognize any other member seeking recognition for 1 minute. We will then hear from our witnesses. Thank you for your patience. Without objection the witnesses' prepared statements will be made a part of the record and members may have 5 days to insert statements and/or questions for the record subject to the length and limitations in the rules. The chair now recognizes herself for a loosely defined 5 minutes.    As we are all aware, earlier this week the Department of State issued a notice warning of a possible imminent attack in Kabul. With so much of our attention focused on the threat from ISIS and the problems in Syria, Iraq, and Iran, it is important that we do not lose sight of some of the other areas of concern for our national security interests, and this security warning is a stark reminder of that.    It took a resurgent Taliban seizing control of Kunduz for President Obama to adjust his strategy, announcing a halt to the withdrawal of American forces from Afghanistan. It was an acknowledgement that the strategy of gradual withdraw was not in line with the reality on the ground. Yet concerns remain that the President isn't leaving behind enough troops to support our objectives in Afghanistan. What was lost in the discussion was the fact that Afghan security forces were able to regain Kunduz back from the Taliban.    Our military leaders on the ground feel confident that the Afghan security forces have done a good job fighting during this season, and are more professional than the Iraqi security forces. Today our core mission is to train, to advise, and to assist the Afghan security forces, and to conduct counterterrorism operations against al-Qaeda and its many affiliates.    Last month I led a bipartisan congressional delegation (codel) visit and was pleased to be joined by one of our members of our subcommittee, Dr. Yoho, to Afghanistan to meet with our troops carrying out this important mission, as well as to discuss pressing issues with President Ghani, CEO Abdullah, General Campbell, and other U.S. military leaders. I had also visited in 2013 when we met with President Karzai.    The one thing that was abundantly clear to me this time around and echoed by everyone with whom I met was that the Afghan Government's eagerness to cooperate with us has greatly improved and that the team of Ghani and Abdullah is an improvement over any combination of Karzai and anyone else.    The current Afghan leaders are saying the right things and are undertaking efforts to root out corruption, to secure and stabilize their own country. We cannot abandon our ally. We must redouble our efforts to remain engaged to seek a more stable Afghanistan.    ISIS is growing in its presence in Afghanistan, mainly by attracting some of the more radical elements of the Taliban who have broken away and have sworn allegiance to ISIS. And that makes our strategy in Afghanistan that much more important. General Campbell told Congress that the terror group status in Afghanistan has grown from nascent to operationally emergent over the course of just a year. Yet when I led our congressional delegation to Afghanistan, I was shocked to hear that our mission does not give our commanders and troops the authority to go after ISIS, that the tasks for containing and defeating this rising threat falls squarely on the Afghan Government and its security forces.    The day the codel departed from the region, we learned that seven people in Afghanistan were beheaded by ISIL, and thousands of people came out to the streets to protest this horrific act of terror. We must rethink the scope of our mission to include taking on more than just al-Qaeda and its affiliates. We should also re-assess our counternarcotics approach in Afghanistan. Terror and drugs are linked as much as the profits from the drug trade in Afghanistan fund these terror groups. While it is encouraging that the new Afghan Government has signed a new counterdrug plan, we need to ensure that it has the resources it needs to succeed in action.    I remain concerned that the number of DEA agents has decreased substantially. Our state INL staff are limited in their movements, and the Afghan counternarcotics forces cannot concentrate on the drug trade because they are busy fighting terrorism. Both the U.S. forces and the security forces of Afghanistan have a limited amount of air lift capabilities, which further limits their ability to tackle any major security or counternarcotics concern. This runs the danger of leaving a wide area of Afghanistan unexposed to our security efforts, and it could have terrible and tragic consequences.    The administration needs to revisit its strategy, and not just put a halt on the withdrawal because artificial timelines will not work, and it needs to also get buy-in from Pakistan. President Ghani has reached out his hand to Pakistan, but has been rebuffed. The U.S. cannot afford to have Pakistan play into the instability in Afghanistan and to continue to allow terrorists safe haven inside its borders. We currently have a pending military package for Pakistan before us in this committee. We need to use this leverage to get Pakistan to do more on the counterterrorism front and to collaborate rather than work against the Afghan Government and its security forces.    During our trip we were also honored to meet with the courageous women of Afghanistan and were proud to hear of the strides that they are making on behalf of women's rights thanks to their hard work and leadership. The stakes are too high in Afghanistan for the Afghan people, for the region, and for U.S. national security interests to allow Afghanistan to fall back on any of the progress we have made together thus far.    Lastly, I want to thank the men and women who so bravely serve and protect our national security interests in Afghanistan. We had an opportunity to meet with so many of these truly heroic and courageous individuals who continue to put their lives at risk each and every day so that we can sleep safely at home while they are out there defending our freedom and our values.    And it says say this, it says here. Say this: Congressman Deutch got pulled into a last minute meeting, but he will show up a little bit later.    So now I am going to recognize other members for their statements. And we will begin with Mr. Cicilline.</t>
   </si>
   <si>
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Madam Chairman.    Thank you, Madam Chairman and Ranking Member Deutch for convening this very important hearing relating to U.S. strategy in Afghanistan. Over the previous 14 years, the U.S. has spent an estimated $1 trillion and lost more than 2,300 American lives in Afghanistan. Military gains by the Taliban and the growing presence of groups like Daesh, as well as a growing number of loosely aligned armed groups provide grave uncertainty regarding Afghanistan's security and stability. It also reveals tremendous challenges and even uncertainty about what role we can effectively play in resolving these conflicts.    The President's recent shift in strategy will leave a significant number of American forces in Afghanistan beyond 2016, creating an unclear future regarding our presence in the region and when it will finally conclude.    I look forward to hearing the perspective of today's witnesses who will help provide an assessment of the President's strategy in Afghanistan and its impact on our overall national security. And with that I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412526</t>
   </si>
   <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Madam Chair. I am glad you called this hearing because I don't know what the President's strategy really is in Afghanistan. I don't know what his strategy really is to deal with terrorism in other parts of the Middle East. I haven't quite been able to figure out his overall foreign policy generally apart from making concessions to regimes that are adverse to our interests like Iran and Russia. So I am hoping to be enlightened, and I am glad you called the hearing. And I yield back.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412529</t>
   </si>
   <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Frankel. That is all right. Mr. Cicilline can go ahead of me any time.    Thank you, Madam Chair, for this hearing. I will be short just to--as the chairlady knows, my son served in the United States Marines in Afghanistan. He also went back to Afghanistan as a member of USAID. So I have a great deal of interest in hearing what you have to say today. And I yield back.</t>
   </si>
   <si>
@@ -85,6 +112,12 @@
     <t>412646</t>
   </si>
   <si>
+    <t>Zeldin</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Zeldin. Well, thank you, Madam Chairwoman, and I want to echo Ron DeSantis' point, how grateful we are that you are holding this hearing. And I think it is important for our constituents to know exactly what the President's strategy is in Afghanistan, in Iraq, and Syria. A strategy which is questioning what is the realty on the ground overseas, not so much what is the rhetoric here at home to best serve one's domestic politics.    We want to know what the rules of engagement are. Are we giving flexibility to our local commanders so that they could adapt to changing circumstances? Who exactly are the forces on the ground? Who is in charge? What is their mission? What is their skill set? What's the long-term plan? What is the vision for where we want to be a year from now or 5 years from now? Whenever we send servicemembers into harm's way, it is important for them, their families, for our country to know that they are being sent with a strategy to win to keep them safe. I yield back.</t>
   </si>
   <si>
@@ -94,6 +127,12 @@
     <t>412652</t>
   </si>
   <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>Brendan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Boyle. Well, thank you, Madam Chair, and I really am going to refrain from an opening statement except to say two things. So I guess I am not refraining from an opening statement, in typical congressional fashion.    The first is I am very anxious to hear from this august panel. I have had the opportunity to hear from one of the members before and am familiar with the work of all three of you. That is number one. And, number two, because I might not get the opportunity later to say it, absolutely anyone would be better than Hamid Karzai, who seemed to in no way appreciate the sacrifice that the American people have gone through over the last 14 years. So, if anything, we can celebrate that we actually do have somewhat of a partner in Afghanistan to move us forward. I will yield back.</t>
   </si>
   <si>
@@ -103,6 +142,12 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Madam Chair, and thank you for holding this hearing. And we thank our witnesses. Looking forward to hearing what they have to say this afternoon.    It seems in recent months due to the growing problems in Syria, and the Iran nuclear agreement, and ISIS and a litany of other major issues all across the world, that Afghanistan to some degree, has kind of been, I think, on the back burner of this administration, has kind of fallen from view in many ways. However, without question the increase in terrorist attacks across the globe is a real threat to stability in the world, the future of Afghanistan, and could really undermine U.S. interests. All of us on this committee have paid particular attention of the mounting threat ISIS has posed. And I think it is fair to stay that the administration fails to do due diligence to ensure stability in Afghanistan, that we are going to see a resurgence in terrorism there as well.    A thoughtful and cohesive strategy continues to be essential in preventing the expansion of al-Qaeda and ISIS and other terrorist organizations in Afghanistan. And it is my hope that the administration and our regional partners give Afghanistan the long-term strategic outlook it deserves as we move forward. And thank you very much, Madam Chair.</t>
   </si>
   <si>
@@ -112,6 +157,12 @@
     <t>412604</t>
   </si>
   <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clawson. I appreciate you all coming in today. This whole situation feels to me like the folks that we support in Afghanistan don't get along. They don't get up to speed. And our allies don't get to pay their fair share. And so while we risk the lives of our brave men and women it kind of feels like no one else, no one else, Europe, in the region, even the people we support, put chips on the table. And we are the only one getting wet. And so it kind of adds to this never-ending quagmire that we are the only ones really paying the price. And so I am hoping that you all will explain if you see a way out from that, and so I appreciate you all coming.</t>
   </si>
   <si>
@@ -121,6 +172,12 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. I think most of my statements are off the cuff, Madam Chairwoman. But, no, I am ready to go. Thank you for holding this hearing.</t>
   </si>
   <si>
@@ -130,12 +187,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Sedney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sedney. That is fine. I am only a juris doctor. So it doesn't count, my wife tells me.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Who is senior associate for the Center of Strategic International Studies. In the past he served as Deputy Assistant Secretary of Defense for Afghanistan, Pakistan, and Central Asia; Deputy Chief of Mission in the U.S. Embassy in Kabul; and senior advisor to then U.N. Ambassador John Negroponte. Welcome, sir.    And last but certainly not least, we would like to welcome Dr. Andrew Wilder who is Vice President of Asia Programs at the United States Institute of Peace. He has served as research director for politics and policy at the Feinstein Center at Tufts University, and has managed humanitarian development programs in Afghanistan for NGOs such as Save the Children, the International Rescue Committee and Mercy Corps. Welcome, Dr. Wilder.    And we will begin with you, Dr. Kagan. Thank you. Your statements will be made a part of the record. Please feel free to summarize.</t>
   </si>
   <si>
+    <t>Kagan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kagan. Thank you, Madam Chair. To the absent ranking, I thank him also.</t>
   </si>
   <si>
@@ -158,6 +221,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Yikes. It is getting worse.    Dr. Wilder, any good news there?</t>
+  </si>
+  <si>
+    <t>Wilder</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Wilder. I will try. But anyway, Chairwoman Ros-Lehtinen and Ranking Member Deutch, when he joins us, and members of the subcommittee, thank you for this opportunity to give my views on the current U.S. strategy in Afghanistan. I would like to note that the views I give today are my own, as the U.S. Institute of Peace does not take policy positions.    I am currently the vice president of USIP's Asia Center where my responsibilities include overseeing our work in Afghanistan. I began to work in this region 30 years ago with U.S. humanitarian organizations and witnessed firsthand the tragic consequences for Afghans, and eventually the U.S. as well, when peace settlements failed and when the world lost interest in Afghanistan.    My main message today, therefore, is that the U.S. should not once again prematurely disengage from Afghanistan. In my view, the foremost interest of the U.S. in Afghanistan should be to help ensure that it remains relatively peaceful and stable, and does not slide back into all-out civil war and anarchy, precisely the same conditions that gave birth to the Taliban in the 1990s, and gave al-Qaeda sanctuary.    The collapse of the Afghan state would nearly certainly result in Afghanistan once again becoming a safe haven for transnational terrorist groups, and would al risk destabilizing its neighbors, including nuclear armed Pakistan. In this regard, I welcome President Obama's recent announcement that the U.S. will maintain the current level of 9,800 troops in Afghanistan through most of next year. Perhaps more importantly, President Obama reversed his earlier plan to close down U.S. bases in Afghanistan, and instead to maintain beyond 2016 at least, 5,500 troops in bases in Bagram, Kandahar, and Jalalabad.    Significantly, for the first time since May 2014, the U.S. no longer has a calendar deadline by which to pull out U.S. forces. This not only serves to keep options open for the next President, but it also sends a strong message to the Afghan people as well as the Taliban of the U.S. commitment to achieve our objective of a stable Afghanistan.    I suspected my two colleagues would focus mostly on the security situation, and so I thought I would in my oral testimony touch on the economic and political situation as well. I think the security situation is often the focus of attention, but the current economic crisis in Pakistan--in Afghanistan is one of the most serious threats to the stability of the current government and the constitutional order in Afghanistan.    The Afghan economy is in dire straits. Economic growth has been very weak. A 1.3 percent in 2014 when in the decade before we are achieving rates of 8 to 9 percent on average. It has been frequently noted but worth repeating that it was not the withdrawal of Soviet troops that lead to the downfall of the Najibullah regime in 1992, and the resulting descent into a bloody civil war. But the end to the Soviet subsidies following the collapse of the Soviet Union. In order not to make the same make mistake, I would make the following two recommendations in terms of economic assistance.    First, the U.S. should play a strong leadership role at the International Donor Conference on Afghanistan, taking place in Brussels next October, to ensure that major donor countries renew their commitments to maintaining robust levels of civilian assistance to Afghanistan and so that it isn't just the U.S. having to foot that bill.    And, second, the U.S. and other donors should provide the Afghan Government with more flexible financial resources that can be used to help stimulate the economy and create jobs in the short to medium term. This would help reduce the possibility of civil unrest due to economic discontent, and buy the Ghani administration some political space to get a reform agenda and a peace process on track. And if anyone is interested, I have copies with me today of a USIP paper by our expert, Bill Byrd, on reviving Afghanistan's economy, which goes into more detail.</t>
@@ -662,7 +728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +736,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,1901 +758,2243 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
       <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
       <c r="H15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
       <c r="H17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
       <c r="H43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
       <c r="H46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
       <c r="H48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
       <c r="H50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
       <c r="H52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
       <c r="H53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
       <c r="H54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
       <c r="H55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
       <c r="H57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
       <c r="H59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
       <c r="H61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
+      </c>
       <c r="H63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G65" t="s">
+        <v>47</v>
+      </c>
       <c r="H65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s">
+        <v>60</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G67" t="s">
+        <v>47</v>
+      </c>
       <c r="H67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G68" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G69" t="s">
+        <v>47</v>
+      </c>
       <c r="H69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G70" t="s">
+        <v>60</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G71" t="s">
+        <v>57</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G72" t="s">
+        <v>69</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G73" t="s">
+        <v>47</v>
+      </c>
       <c r="H73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G77" t="s">
+        <v>57</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="G79" t="s">
+        <v>69</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97753.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97753.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Ros-Lehtinen</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412470</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Cicilline</t>
@@ -728,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +745,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,2240 +770,2424 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" t="s">
-        <v>69</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G51" t="s">
-        <v>60</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
-      </c>
-      <c r="G64" t="s">
-        <v>60</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
-      </c>
-      <c r="G66" t="s">
-        <v>60</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
-      </c>
-      <c r="G68" t="s">
-        <v>60</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>63</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G70" t="s">
-        <v>60</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
-      </c>
-      <c r="G71" t="s">
-        <v>57</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>60</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
-      </c>
-      <c r="G72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
-      </c>
-      <c r="G75" t="s">
-        <v>60</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
-      </c>
-      <c r="G77" t="s">
-        <v>57</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>60</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
-      </c>
-      <c r="G79" t="s">
-        <v>69</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>72</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>121</v>
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
